--- a/Documentation/TrackHours.xlsx
+++ b/Documentation/TrackHours.xlsx
@@ -21,6 +21,113 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Decription of work done</t>
+  </si>
+  <si>
+    <t>Research into capturing maps</t>
+  </si>
+  <si>
+    <t>Installing Visual studio 2013, going through turtorials on how to use WindowsRT and program for the tablet</t>
+  </si>
+  <si>
+    <t>Tryin to fix the crashing that happens when I load up .js files</t>
+  </si>
+  <si>
+    <t>5pm</t>
+  </si>
+  <si>
+    <t>3pm</t>
+  </si>
+  <si>
+    <t>10am</t>
+  </si>
+  <si>
+    <t>11pm</t>
+  </si>
+  <si>
+    <t>cont of the above.</t>
+  </si>
+  <si>
+    <t>11am</t>
+  </si>
+  <si>
+    <t>9pm</t>
+  </si>
+  <si>
+    <t>reformatted hard drive twice, reinstalled windows, visual studio, did all updates-everything works</t>
+  </si>
+  <si>
+    <t>More research, totally stuck</t>
+  </si>
+  <si>
+    <t>7pm</t>
+  </si>
+  <si>
+    <t>more of the same</t>
+  </si>
+  <si>
+    <t>Changed tracks, got a map up</t>
+  </si>
+  <si>
+    <t>Got buttons working and pages working</t>
+  </si>
+  <si>
+    <t>Back to research and cataloging</t>
+  </si>
+  <si>
+    <t>did other hw all day</t>
+  </si>
+  <si>
+    <t>on plane all day to NY for a wedding</t>
+  </si>
+  <si>
+    <t>involved with wedding all day</t>
+  </si>
+  <si>
+    <t>on plane home all day, arrive at 1am Monday</t>
+  </si>
+  <si>
+    <t>in bed sick all day, 102 fever</t>
+  </si>
+  <si>
+    <t>12pm</t>
+  </si>
+  <si>
+    <t>11:45pm</t>
+  </si>
+  <si>
+    <t>Made headway on the reasearch, found what I was looking for</t>
+  </si>
+  <si>
+    <t>wrote code but can't remember what</t>
+  </si>
+  <si>
+    <t>worked on implementing file download</t>
+  </si>
+  <si>
+    <t>6pm</t>
+  </si>
+  <si>
+    <t>10pm</t>
+  </si>
+  <si>
+    <t>finished getting a jpg downloaded</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,8 +161,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +444,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>41650</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>41651</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>41651</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>41655</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>41656</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>41657</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>41658</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>41659</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>41662</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>41662</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>